--- a/doc/前后端协议/前后端通讯协议_v0.2.xlsx
+++ b/doc/前后端协议/前后端通讯协议_v0.2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="503">
   <si>
     <t xml:space="preserve">包括电流，电压，功率，电能，开关状态，插接位名称，环境数据结构体</t>
   </si>
@@ -188,10 +188,49 @@
     <t xml:space="preserve">12：湿度</t>
   </si>
   <si>
-    <t xml:space="preserve">11、历史数据记录（开关寿命报警使能）</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">11、历史数据记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（多开关控制）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">21：门禁1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">12、预留</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（开关寿命报警使能）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">22：门禁2</t>
@@ -1536,7 +1575,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1558,6 +1597,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1631,7 +1676,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1662,8 +1707,8 @@
   </sheetPr>
   <dimension ref="A2:L406"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F111" activeCellId="0" sqref="F111"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1930,25 +1975,28 @@
       <c r="E22" s="0" t="s">
         <v>56</v>
       </c>
+      <c r="F22" s="0" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E23" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E24" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E25" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>9</v>
@@ -1966,7 +2014,7 @@
         <v>15</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1980,7 +2028,7 @@
         <v>18</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2005,7 +2053,7 @@
         <v>24</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>26</v>
@@ -2019,7 +2067,7 @@
         <v>28</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>30</v>
@@ -2044,7 +2092,7 @@
         <v>35</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2055,7 +2103,7 @@
         <v>38</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2066,7 +2114,7 @@
         <v>41</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2074,15 +2122,15 @@
         <v>44</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E38" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2102,22 +2150,22 @@
     </row>
     <row r="42" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E42" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E43" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>15</v>
@@ -2126,56 +2174,56 @@
         <v>12</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E49" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E50" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E51" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>9</v>
@@ -2184,13 +2232,13 @@
         <v>12</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2198,21 +2246,21 @@
         <v>16</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>9</v>
@@ -2221,7 +2269,7 @@
         <v>12</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>15</v>
@@ -2230,18 +2278,18 @@
         <v>9</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>30</v>
@@ -2255,40 +2303,40 @@
         <v>16</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E63" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E64" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E65" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E66" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E67" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E68" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2299,63 +2347,63 @@
         <v>16</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E74" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E75" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E76" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E77" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E78" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E79" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H79" s="3"/>
     </row>
     <row r="80" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E80" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F80" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="F80" s="0" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E81" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2363,155 +2411,155 @@
         <v>16</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E84" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E85" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E86" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E88" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F88" s="3"/>
       <c r="H88" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E89" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E90" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E91" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E92" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H92" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E94" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E95" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E96" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E97" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E98" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E99" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E100" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E101" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E102" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2522,50 +2570,50 @@
     </row>
     <row r="107" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C107" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E108" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E109" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E110" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E111" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E112" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2573,552 +2621,552 @@
     </row>
     <row r="115" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C115" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E116" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E117" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E118" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E119" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E120" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E121" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E122" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E123" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E124" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H124" s="3"/>
     </row>
     <row r="125" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E125" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H125" s="3"/>
     </row>
     <row r="127" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C127" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E128" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E129" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E130" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E131" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E132" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E133" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E134" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E135" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H135" s="3"/>
     </row>
     <row r="136" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E136" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E137" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E138" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="F138" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C140" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E141" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E142" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E143" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E144" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E145" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C147" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C148" s="3"/>
       <c r="E148" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E149" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F149" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E150" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E151" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D152" s="3"/>
       <c r="E152" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D153" s="3"/>
       <c r="E153" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="H154" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D155" s="3"/>
       <c r="E155" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D156" s="3"/>
       <c r="E156" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E157" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E158" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E159" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H159" s="3"/>
     </row>
     <row r="160" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E160" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H160" s="3"/>
     </row>
     <row r="161" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E161" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C163" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E164" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E165" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E166" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E167" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E168" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E169" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E170" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E171" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E172" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E173" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E174" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D176" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E177" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E178" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E179" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E180" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E181" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E182" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E183" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E184" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E185" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E186" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E187" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E188" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D190" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E190" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E191" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E192" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E193" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E194" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E195" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E196" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E197" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E198" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E199" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D201" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E202" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E203" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E204" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E205" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E206" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E207" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E208" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E209" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E210" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3126,13 +3174,13 @@
         <v>16</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G213" s="3"/>
     </row>
@@ -3141,28 +3189,28 @@
         <v>16</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G214" s="3"/>
     </row>
     <row r="215" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C215" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G215" s="3"/>
     </row>
@@ -3171,15 +3219,15 @@
         <v>16</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
       <c r="H216" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="217" s="5" customFormat="true" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3187,17 +3235,17 @@
         <v>16</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G217" s="3"/>
       <c r="H217" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3208,85 +3256,85 @@
         <v>16</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E221" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E222" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E223" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E224" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E225" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E226" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E227" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E228" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E229" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E230" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E231" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E232" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E233" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E234" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E235" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3294,16 +3342,16 @@
     </row>
     <row r="237" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C237" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H237" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3312,36 +3360,36 @@
     </row>
     <row r="239" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E239" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H239" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E240" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H240" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E241" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H241" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E242" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E243" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3349,34 +3397,34 @@
     </row>
     <row r="245" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E245" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H245" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E246" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="H246" s="0" t="s">
         <v>311</v>
-      </c>
-      <c r="H246" s="0" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E247" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H247" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E248" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3384,28 +3432,28 @@
     </row>
     <row r="250" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E250" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H250" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E251" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E252" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E253" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3413,25 +3461,25 @@
     </row>
     <row r="255" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D255" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E256" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E257" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E258" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3439,75 +3487,75 @@
     </row>
     <row r="260" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E260" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E261" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E262" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E263" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E264" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E265" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E266" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F266" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E268" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E269" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E270" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E271" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E272" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E273" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E274" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3515,7 +3563,7 @@
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E276" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3523,55 +3571,55 @@
     </row>
     <row r="278" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D278" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E278" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E279" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E280" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E281" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E282" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E283" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E284" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E285" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E286" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E287" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3579,85 +3627,85 @@
     </row>
     <row r="290" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D290" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E290" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G290" s="3"/>
       <c r="H290" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E291" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H291" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E292" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E293" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E294" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E295" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E296" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E297" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E298" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E299" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E300" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E301" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E302" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E303" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3665,45 +3713,45 @@
     </row>
     <row r="305" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D305" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E305" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E306" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E307" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E308" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E309" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E310" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E311" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E312" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3712,196 +3760,196 @@
     </row>
     <row r="314" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D314" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E314" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G314" s="3"/>
     </row>
     <row r="315" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D315" s="3"/>
       <c r="E315" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G315" s="3"/>
     </row>
     <row r="316" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E316" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E317" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E318" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E319" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D321" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E322" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E323" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E324" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E325" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F325" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E326" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E327" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H327" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E328" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E329" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D331" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E331" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D332" s="3"/>
       <c r="E332" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E333" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E334" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E335" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D337" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E337" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H337" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D338" s="3"/>
       <c r="E338" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E339" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E340" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D342" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E342" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E343" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H343" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E344" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H344" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E345" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H345" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E346" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H346" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="H346" s="3" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E347" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H347" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3909,44 +3957,44 @@
     </row>
     <row r="349" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D349" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E349" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H349" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E350" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H350" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E351" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H351" s="3"/>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E352" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H352" s="3"/>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E353" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H353" s="3"/>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E354" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H354" s="3"/>
     </row>
@@ -3955,257 +4003,257 @@
     </row>
     <row r="356" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D356" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E356" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E357" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E358" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D360" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E360" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F360" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H360" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E361" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F361" s="3"/>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E362" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E363" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E364" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E365" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D367" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E367" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D370" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E370" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F370" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H370" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D371" s="3"/>
       <c r="E371" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F371" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H371" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E372" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F372" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E373" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F373" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E374" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F374" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E375" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="377" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D377" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E377" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H377" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D378" s="3"/>
       <c r="E378" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F378" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H378" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D379" s="3"/>
       <c r="E379" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F379" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H379" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D380" s="3"/>
       <c r="E380" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F380" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H380" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D381" s="3"/>
       <c r="E381" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F381" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G381" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H381" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D382" s="3"/>
       <c r="E382" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F382" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G382" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D383" s="3"/>
       <c r="E383" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F383" s="3"/>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E384" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G384" s="3"/>
     </row>
     <row r="385" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E385" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D387" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E387" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E388" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E389" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E391" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E392" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E393" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D395" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E395" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4213,45 +4261,45 @@
     </row>
     <row r="397" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D397" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E397" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H397" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E398" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H398" s="3"/>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D400" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E400" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E401" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D403" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E403" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E404" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4259,7 +4307,7 @@
     </row>
     <row r="406" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D406" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -4268,8 +4316,8 @@
     <mergeCell ref="C3:G3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4285,7 +4333,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="F21:F22 D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4304,7 +4352,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -4314,7 +4362,7 @@
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>12</v>
@@ -4329,7 +4377,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4343,7 +4391,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4368,7 +4416,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>26</v>
@@ -4382,7 +4430,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>30</v>
@@ -4390,7 +4438,7 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>32</v>
@@ -4401,13 +4449,13 @@
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4415,10 +4463,10 @@
         <v>37</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4426,33 +4474,33 @@
         <v>40</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -4460,8 +4508,8 @@
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
